--- a/Excel/镇魂街/战斗/战场配置.xlsx
+++ b/Excel/镇魂街/战斗/战场配置.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\战斗\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CA0261-A3EB-44B1-9C36-C6049D326A61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="battle_field_data" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,19 @@
     <sheet name="battle_ccskill_config" sheetId="3" r:id="rId3"/>
     <sheet name="fx_config" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="211">
   <si>
     <t>标识</t>
   </si>
@@ -99,6 +112,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -109,6 +123,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,6 +134,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -129,6 +145,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -139,6 +156,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -151,6 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -161,6 +180,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -171,6 +191,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -181,6 +202,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -191,6 +213,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -203,6 +226,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -213,6 +237,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,6 +248,7 @@
         <sz val="11"/>
         <color rgb="FFFFC000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -233,6 +259,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -243,6 +270,7 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,6 +283,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -265,6 +294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,6 +305,7 @@
         <sz val="11"/>
         <color rgb="FFFFC000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -285,6 +316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -295,6 +327,7 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -307,6 +340,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,6 +351,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,6 +362,7 @@
         <sz val="11"/>
         <color rgb="FFFFC000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -337,6 +373,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -347,10 +384,11 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0#-78.172#0|0#-78.172#0</t>
+      <t>0#-35.4#0|0#-35.4#0</t>
     </r>
   </si>
   <si>
@@ -359,6 +397,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -369,6 +408,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -379,6 +419,7 @@
         <sz val="11"/>
         <color rgb="FFFFC000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -389,6 +430,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -399,6 +441,7 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -754,7 +797,10 @@
     <t>model_szz_1202001_p</t>
   </si>
   <si>
-    <t>1309001-1#Art/Roles/rol_12002001/Animations/1202001_skill_1.playable|1310001-1#Art/Roles/rol_12002001/Animations/1202001_skill_2.playable|1311001-1#Art/Roles/rol_12002001/Animations/1202001_skill_3.playable\</t>
+    <t>1309001-1#Art/Roles/rol_12002001/Animations/1202001_skill_1.playable|1310001-1#Art/Roles/rol_12002001/Animations/1202001_skill_2.playable|1311001-1#Art/Roles/rol_12002001/Animations/1202001_skill_3.playable</t>
+  </si>
+  <si>
+    <t>skillTimeLine</t>
   </si>
   <si>
     <t>skill_2</t>
@@ -763,13 +809,13 @@
     <t>skill_1</t>
   </si>
   <si>
-    <t>play_Type</t>
-  </si>
-  <si>
     <t>follow_Type</t>
   </si>
   <si>
-    <t>挂点ID</t>
+    <t>FxPosId</t>
+  </si>
+  <si>
+    <t>Des</t>
   </si>
   <si>
     <t>特效Id</t>
@@ -778,26 +824,189 @@
     <t>预设路径名字</t>
   </si>
   <si>
-    <t>播放类型（1单个播放，2印技类型播放）</t>
-  </si>
-  <si>
-    <t>跟随类型（1完全跟随，2只跟随为最，3不跟随）</t>
-  </si>
-  <si>
-    <t>特效挂点id(0,1,2,3….)</t>
+    <t>跟随类型（1完全跟随，2只跟随位置，3不跟随）</t>
+  </si>
+  <si>
+    <t>特效挂点id(0脚下,1被击点,2头顶.)</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_imprisonment</t>
+  </si>
+  <si>
+    <t>禁锢</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jinzhizhaohuan</t>
+  </si>
+  <si>
+    <t>禁止召唤</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jinzhizhudong</t>
+  </si>
+  <si>
+    <t>禁止主动技能</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jinzhibeidong</t>
+  </si>
+  <si>
+    <t>封印被动技能</t>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_zy gongji</t>
+  </si>
+  <si>
+    <t>提升攻击</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_zy shanghai</t>
+  </si>
+  <si>
+    <t>提高伤害</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_zy zhiliao</t>
+  </si>
+  <si>
+    <t>提高治疗</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jy shanghai</t>
+  </si>
+  <si>
+    <t>减少伤害</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jy zhiliao</t>
+  </si>
+  <si>
+    <t>减少目标受到的治疗</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jy fangyu</t>
+  </si>
+  <si>
+    <t>减少防御</t>
+  </si>
+  <si>
+    <t>增加暴击伤害</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_xixue</t>
+  </si>
+  <si>
+    <t>吸血状态</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_bingxiang</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_xuanyun</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_zhuoshao</t>
+  </si>
+  <si>
+    <t>灼烧</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_yanfengcha</t>
+  </si>
+  <si>
+    <t>阎风吒的标记</t>
+  </si>
+  <si>
+    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jihuo</t>
+  </si>
+  <si>
+    <t>集火标记</t>
+  </si>
+  <si>
+    <t>北落师门印记</t>
+  </si>
+  <si>
+    <t>项昆仑印记</t>
+  </si>
+  <si>
+    <t>血魔印记</t>
+  </si>
+  <si>
+    <t>盖文印记</t>
+  </si>
+  <si>
+    <t>烈风螳螂印记</t>
+  </si>
+  <si>
+    <t>CastingPos</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>casting位置：X#Y</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-192#197</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-729#449</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-588#148</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-676#34</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-480#184</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-518#461</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-405#296</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-459#252</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-459#307</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-573#195</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>mut,int#int,1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,12 +1018,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF6A8759"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -822,173 +1033,42 @@
       <sz val="11"/>
       <color rgb="FF6A8759"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -996,6 +1076,7 @@
       <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1003,11 +1084,19 @@
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,192 +1123,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1242,255 +1151,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1503,8 +1170,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1519,9 +1201,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1542,41 +1221,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1584,57 +1230,48 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1649,6 +1286,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1935,19 +1575,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="59.625" customWidth="1"/>
@@ -1958,7 +1598,7 @@
     <col min="7" max="8" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +1624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2010,7 +1650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2036,8 +1676,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2062,7 +1702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2082,7 +1722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2096,1758 +1736,1930 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="29">
+      <c r="B8" s="22">
         <v>1</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="29">
+      <c r="B9" s="22">
         <v>2</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="29">
+      <c r="B10" s="22">
         <v>3</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="29">
+      <c r="B11" s="22">
         <v>4</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="23" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="13" customWidth="1"/>
-    <col min="3" max="6" width="24.625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="62.25" style="13" customWidth="1"/>
-    <col min="8" max="8" width="133.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="63" style="14" customWidth="1"/>
-    <col min="10" max="10" width="81" style="15" customWidth="1"/>
-    <col min="11" max="11" width="17.75" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="12.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="17" customWidth="1"/>
+    <col min="3" max="6" width="24.625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="62.25" style="17" customWidth="1"/>
+    <col min="8" max="8" width="133.625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="63" style="18" customWidth="1"/>
+    <col min="10" max="10" width="52.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.75" style="17" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="16" t="s">
+      <c r="K1" s="34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="16" t="s">
+      <c r="K2" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="24">
         <v>3</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="24">
         <v>0</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="24">
         <v>0</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="24">
         <v>3</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="24">
         <v>3</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="24">
         <v>3</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="25">
         <v>3</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="25">
         <v>3</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="19" t="s">
+      <c r="K3" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="16" t="s">
+      <c r="K4" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="24">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="16" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24">
         <v>1</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="24">
         <v>1</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="16" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="26"/>
-    </row>
-    <row r="8" s="12" customFormat="1" spans="2:10">
-      <c r="B8" s="12">
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="27">
         <v>1101001</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="29">
         <v>1.83</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="27">
         <f>D8+0.3</f>
         <v>2.13</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="29">
         <v>0.23</v>
       </c>
-      <c r="G8" s="11" t="str">
+      <c r="G8" s="30" t="str">
         <f>"Art/Roles/rol_"&amp;B8&amp;"/Pefabs/"&amp;C8&amp;".prefab"</f>
         <v>Art/Roles/rol_1101001/Pefabs/model_cfcyb_1101001_p.prefab</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="28" t="str">
+      <c r="J8" s="32" t="str">
         <f t="shared" ref="J8:J16" si="0">"Art/Roles/rol_"&amp;B8&amp;"/Animations/"&amp;B8&amp;"_win.playable"</f>
         <v>Art/Roles/rol_1101001/Animations/1101001_win.playable</v>
       </c>
-    </row>
-    <row r="9" s="12" customFormat="1" spans="2:10">
-      <c r="B9" s="12">
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="27">
         <v>1101002</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="29">
         <v>1.2</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="27">
         <f t="shared" ref="E9:E55" si="1">D9+0.3</f>
         <v>1.5</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="29">
         <v>0.13</v>
       </c>
-      <c r="G9" s="11" t="str">
+      <c r="G9" s="30" t="str">
         <f t="shared" ref="G9:G55" si="2">"Art/Roles/rol_"&amp;B9&amp;"/Pefabs/"&amp;C9&amp;".prefab"</f>
         <v>Art/Roles/rol_1101002/Pefabs/model_cxl_1101002_p.prefab</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="28" t="str">
+      <c r="I9" s="32" t="str">
         <f>"Art/Roles/rol_"&amp;B9&amp;"/Animations/"&amp;B9&amp;"_summon.playable"</f>
         <v>Art/Roles/rol_1101002/Animations/1101002_summon.playable</v>
       </c>
-      <c r="J9" s="28" t="str">
+      <c r="J9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Art/Roles/rol_1101002/Animations/1101002_win.playable</v>
       </c>
-    </row>
-    <row r="10" s="12" customFormat="1" spans="2:10">
-      <c r="B10" s="12">
+      <c r="K9" s="35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="27">
         <v>1101003</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="29">
         <v>1.73</v>
       </c>
-      <c r="E10" s="12">
-        <f t="shared" si="1"/>
-        <v>2.03</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="E10" s="27">
+        <f t="shared" si="1"/>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F10" s="29">
         <v>0.2</v>
       </c>
-      <c r="G10" s="11" t="str">
+      <c r="G10" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101003/Pefabs/model_zdxl_1101003_p.prefab</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="28" t="str">
+      <c r="I10" s="32" t="str">
         <f>"Art/Roles/rol_"&amp;B10&amp;"/Animations/"&amp;B10&amp;"_summon.playable"</f>
         <v>Art/Roles/rol_1101003/Animations/1101003_summon.playable</v>
       </c>
-      <c r="J10" s="28" t="str">
+      <c r="J10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Art/Roles/rol_1101003/Animations/1101003_win.playable</v>
       </c>
-    </row>
-    <row r="11" s="12" customFormat="1" spans="2:10">
-      <c r="B11" s="12">
+      <c r="K10" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="27">
         <v>1101007</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="29">
         <v>1.8</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="27">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="29">
         <v>0.44</v>
       </c>
-      <c r="G11" s="11" t="str">
+      <c r="G11" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101007/Pefabs/model_zdcyb_1101007_p.prefab</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="28" t="str">
+      <c r="I11" s="32" t="str">
         <f>"Art/Roles/rol_"&amp;B11&amp;"/Animations/"&amp;B11&amp;"_summon.playable"</f>
         <v>Art/Roles/rol_1101007/Animations/1101007_summon.playable</v>
       </c>
-      <c r="J11" s="28" t="str">
+      <c r="J11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Art/Roles/rol_1101007/Animations/1101007_win.playable</v>
       </c>
-    </row>
-    <row r="12" s="12" customFormat="1" spans="2:10">
-      <c r="B12" s="12">
+      <c r="K11" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="27">
         <v>1101008</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="29">
         <v>1.96</v>
       </c>
-      <c r="E12" s="12">
-        <f t="shared" si="1"/>
-        <v>2.26</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="E12" s="27">
+        <f t="shared" si="1"/>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F12" s="29">
         <v>0.22</v>
       </c>
-      <c r="G12" s="11" t="str">
+      <c r="G12" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101008/Pefabs/model_hekp_1101008_p.prefab</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="28" t="str">
+      <c r="I12" s="32" t="str">
         <f>"Art/Roles/rol_"&amp;B12&amp;"/Animations/"&amp;B12&amp;"_summon.playable"</f>
         <v>Art/Roles/rol_1101008/Animations/1101008_summon.playable</v>
       </c>
-      <c r="J12" s="28" t="str">
+      <c r="J12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Art/Roles/rol_1101008/Animations/1101008_win.playable</v>
       </c>
-    </row>
-    <row r="13" s="12" customFormat="1" spans="2:10">
-      <c r="B13" s="12">
+      <c r="K12" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="27">
         <v>1102001</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="29">
         <v>2.86</v>
       </c>
-      <c r="E13" s="12">
-        <f t="shared" si="1"/>
-        <v>3.16</v>
-      </c>
-      <c r="F13" s="23">
+      <c r="E13" s="27">
+        <f t="shared" si="1"/>
+        <v>3.1599999999999997</v>
+      </c>
+      <c r="F13" s="29">
         <v>0.81</v>
       </c>
-      <c r="G13" s="11" t="str">
+      <c r="G13" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102001/Pefabs/model_gy_1102001_p.prefab</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28" t="str">
+      <c r="I13" s="32"/>
+      <c r="J13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Art/Roles/rol_1102001/Animations/1102001_win.playable</v>
       </c>
-    </row>
-    <row r="14" s="12" customFormat="1" spans="2:10">
-      <c r="B14" s="12">
+      <c r="K13" s="35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="27">
         <v>1102002</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="29">
         <v>2.9</v>
       </c>
-      <c r="E14" s="12">
-        <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="E14" s="27">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="F14" s="29">
         <v>1.03</v>
       </c>
-      <c r="G14" s="11" t="str">
+      <c r="G14" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102002/Pefabs/model_xc_1102002_p.prefab</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28" t="str">
+      <c r="I14" s="32"/>
+      <c r="J14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Art/Roles/rol_1102002/Animations/1102002_win.playable</v>
       </c>
-    </row>
-    <row r="15" s="12" customFormat="1" spans="2:10">
-      <c r="B15" s="12">
+      <c r="K14" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="27">
         <v>1102004</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="29">
         <v>2.5</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="27">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="29">
         <v>0.78</v>
       </c>
-      <c r="G15" s="11" t="str">
+      <c r="G15" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102004/Pefabs/model_tly_1102004_p.prefab</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28" t="str">
+      <c r="I15" s="32"/>
+      <c r="J15" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Art/Roles/rol_1102004/Animations/1102004_win.playable</v>
       </c>
-    </row>
-    <row r="16" s="12" customFormat="1" spans="2:10">
-      <c r="B16" s="12">
+      <c r="K15" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="27">
         <v>1102015</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="29">
         <v>2.54</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="27">
         <f t="shared" si="1"/>
         <v>2.84</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="29">
         <v>0.64</v>
       </c>
-      <c r="G16" s="11" t="str">
+      <c r="G16" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102015/Pefabs/model_yj_1102015_p.prefab</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28" t="str">
+      <c r="I16" s="32"/>
+      <c r="J16" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Art/Roles/rol_1102015/Animations/1102015_win.playable</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" spans="2:10">
-      <c r="B17" s="24">
+      <c r="K16" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="33">
         <v>1101004</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="29">
         <v>1.9</v>
       </c>
-      <c r="E17" s="12">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
-      </c>
-      <c r="F17" s="23">
+      <c r="E17" s="27">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="F17" s="29">
         <v>0.62</v>
       </c>
-      <c r="G17" s="11" t="str">
+      <c r="G17" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101004/Pefabs/model_xkl_1101004_p.prefab</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="28" t="str">
+      <c r="I17" s="32" t="str">
         <f>"Art/Roles/rol_"&amp;B17&amp;"/Animations/"&amp;B17&amp;"_summon.playable"</f>
         <v>Art/Roles/rol_1101004/Animations/1101004_summon.playable</v>
       </c>
-      <c r="J17" s="28" t="str">
+      <c r="J17" s="32" t="str">
         <f t="shared" ref="J17:J43" si="3">"Art/Roles/rol_"&amp;B17&amp;"/Animations/"&amp;B17&amp;"_win.playable"</f>
         <v>Art/Roles/rol_1101004/Animations/1101004_win.playable</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" spans="2:10">
-      <c r="B18" s="24">
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="33">
         <v>1101005</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="29">
         <v>1.8</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="27">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="29">
         <v>0.21</v>
       </c>
-      <c r="G18" s="11" t="str">
+      <c r="G18" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101005/Pefabs/model_lyc_1101005_p.prefab</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="28" t="str">
+      <c r="I18" s="32" t="str">
         <f>"Art/Roles/rol_"&amp;B18&amp;"/Animations/"&amp;B18&amp;"_summon.playable"</f>
         <v>Art/Roles/rol_1101005/Animations/1101005_summon.playable</v>
       </c>
-      <c r="J18" s="28" t="str">
+      <c r="J18" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1101005/Animations/1101005_win.playable</v>
       </c>
-    </row>
-    <row r="19" customFormat="1" spans="2:10">
-      <c r="B19" s="24">
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="33">
         <v>1101006</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="29">
         <v>1.8</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="27">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="29">
         <v>0.33</v>
       </c>
-      <c r="G19" s="11" t="str">
+      <c r="G19" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101006/Pefabs/model_hltn_1101006_p.prefab</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="28" t="str">
+      <c r="I19" s="32" t="str">
         <f t="shared" ref="I19:I26" si="4">"Art/Roles/rol_"&amp;B19&amp;"/Animations/"&amp;B19&amp;"_summon.playable"</f>
         <v>Art/Roles/rol_1101006/Animations/1101006_summon.playable</v>
       </c>
-      <c r="J19" s="28" t="str">
+      <c r="J19" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1101006/Animations/1101006_win.playable</v>
       </c>
-    </row>
-    <row r="20" customFormat="1" spans="2:10">
-      <c r="B20" s="24">
+      <c r="K19" s="36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="33">
         <v>1101009</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="29">
         <v>1.83</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="27">
         <f t="shared" si="1"/>
         <v>2.13</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="29">
         <v>0.26</v>
       </c>
-      <c r="G20" s="11" t="str">
+      <c r="G20" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101009/Pefabs/model_blsm_1101009_p.prefab</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="28" t="str">
+      <c r="I20" s="32" t="str">
         <f t="shared" si="4"/>
         <v>Art/Roles/rol_1101009/Animations/1101009_summon.playable</v>
       </c>
-      <c r="J20" s="28" t="str">
+      <c r="J20" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1101009/Animations/1101009_win.playable</v>
       </c>
-    </row>
-    <row r="21" customFormat="1" spans="2:10">
-      <c r="B21" s="24">
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20"/>
+      <c r="B21" s="33">
         <v>1101010</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="29">
         <v>1.9</v>
       </c>
-      <c r="E21" s="12">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
-      </c>
-      <c r="F21" s="23">
+      <c r="E21" s="27">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="F21" s="29">
         <v>0.41</v>
       </c>
-      <c r="G21" s="11" t="str">
+      <c r="G21" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101010/Pefabs/model_gw_1101010_p.prefab</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="28" t="str">
+      <c r="I21" s="32" t="str">
         <f t="shared" si="4"/>
         <v>Art/Roles/rol_1101010/Animations/1101010_summon.playable</v>
       </c>
-      <c r="J21" s="28" t="str">
+      <c r="J21" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1101010/Animations/1101010_win.playable</v>
       </c>
-    </row>
-    <row r="22" customFormat="1" spans="2:10">
-      <c r="B22" s="24">
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20"/>
+      <c r="B22" s="33">
         <v>1101011</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="29">
         <v>1.65</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="27">
         <f t="shared" si="1"/>
         <v>1.95</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="29">
         <v>0.22</v>
       </c>
-      <c r="G22" s="11" t="str">
+      <c r="G22" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101011/Pefabs/model_yfz_1101011_p.prefab</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="28" t="str">
+      <c r="I22" s="32" t="str">
         <f t="shared" si="4"/>
         <v>Art/Roles/rol_1101011/Animations/1101011_summon.playable</v>
       </c>
-      <c r="J22" s="28" t="str">
+      <c r="J22" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1101011/Animations/1101011_win.playable</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" spans="2:10">
-      <c r="B23" s="24">
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="20"/>
+      <c r="B23" s="33">
         <v>1101012</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="29">
         <v>1.9</v>
       </c>
-      <c r="E23" s="12">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
-      </c>
-      <c r="F23" s="23">
+      <c r="E23" s="27">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="F23" s="29">
         <v>0.38</v>
       </c>
-      <c r="G23" s="11" t="str">
+      <c r="G23" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101012/Pefabs/model_nyf_1101012_p.prefab</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="28" t="str">
+      <c r="I23" s="32" t="str">
         <f t="shared" si="4"/>
         <v>Art/Roles/rol_1101012/Animations/1101012_summon.playable</v>
       </c>
-      <c r="J23" s="28" t="str">
+      <c r="J23" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1101012/Animations/1101012_win.playable</v>
       </c>
-    </row>
-    <row r="24" customFormat="1" spans="2:10">
-      <c r="B24" s="24">
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="33">
         <v>1101013</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="29">
         <v>1.81</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="27">
         <f t="shared" si="1"/>
         <v>2.11</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="29">
         <v>0.22</v>
       </c>
-      <c r="G24" s="11" t="str">
+      <c r="G24" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101013/Pefabs/model_jl_1101013_p.prefab</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="28" t="str">
+      <c r="I24" s="32" t="str">
         <f t="shared" si="4"/>
         <v>Art/Roles/rol_1101013/Animations/1101013_summon.playable</v>
       </c>
-      <c r="J24" s="28" t="str">
+      <c r="J24" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1101013/Animations/1101013_win.playable</v>
       </c>
-    </row>
-    <row r="25" customFormat="1" spans="2:10">
-      <c r="B25" s="24">
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="33">
         <v>1101014</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="29">
         <v>1.76</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="27">
         <f t="shared" si="1"/>
         <v>2.06</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="29">
         <v>0.24</v>
       </c>
-      <c r="G25" s="11" t="str">
+      <c r="G25" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101014/Pefabs/model_lxg_1101014_p.prefab</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="28" t="str">
+      <c r="I25" s="32" t="str">
         <f t="shared" si="4"/>
         <v>Art/Roles/rol_1101014/Animations/1101014_summon.playable</v>
       </c>
-      <c r="J25" s="28" t="str">
+      <c r="J25" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1101014/Animations/1101014_win.playable</v>
       </c>
-    </row>
-    <row r="26" customFormat="1" spans="2:10">
-      <c r="B26" s="24">
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="20"/>
+      <c r="B26" s="33">
         <v>1101015</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="29">
         <v>1.75</v>
       </c>
-      <c r="E26" s="12">
-        <f t="shared" si="1"/>
-        <v>2.05</v>
-      </c>
-      <c r="F26" s="23">
+      <c r="E26" s="27">
+        <f t="shared" si="1"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F26" s="29">
         <v>0.17</v>
       </c>
-      <c r="G26" s="11" t="str">
+      <c r="G26" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1101015/Pefabs/model_yqq_1101015_p.prefab</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="28" t="str">
+      <c r="I26" s="32" t="str">
         <f t="shared" si="4"/>
         <v>Art/Roles/rol_1101015/Animations/1101015_summon.playable</v>
       </c>
-      <c r="J26" s="28" t="str">
+      <c r="J26" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1101015/Animations/1101015_win.playable</v>
       </c>
-    </row>
-    <row r="27" customFormat="1" spans="2:10">
-      <c r="B27" s="24">
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="20"/>
+      <c r="B27" s="33">
         <v>1102003</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="29">
         <v>2.8</v>
       </c>
-      <c r="E27" s="12">
-        <f t="shared" si="1"/>
-        <v>3.1</v>
-      </c>
-      <c r="F27" s="23">
+      <c r="E27" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="F27" s="29">
         <v>1.31</v>
       </c>
-      <c r="G27" s="11" t="str">
+      <c r="G27" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102003/Pefabs/model_dw_1102003_p.prefab</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="28" t="str">
+      <c r="I27" s="8"/>
+      <c r="J27" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102003/Animations/1102003_win.playable</v>
       </c>
-    </row>
-    <row r="28" customFormat="1" spans="2:10">
-      <c r="B28" s="24">
+      <c r="K27" s="36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20"/>
+      <c r="B28" s="33">
         <v>1102005</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="23">
-        <v>2.3</v>
-      </c>
-      <c r="E28" s="12">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="F28" s="23">
+      <c r="D28" s="29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="F28" s="29">
         <v>0.32</v>
       </c>
-      <c r="G28" s="11" t="str">
+      <c r="G28" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102005/Pefabs/model_lxy_1102005_p.prefab</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="28" t="str">
+      <c r="I28" s="8"/>
+      <c r="J28" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102005/Animations/1102005_win.playable</v>
       </c>
-    </row>
-    <row r="29" customFormat="1" spans="2:10">
-      <c r="B29" s="24">
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="33">
         <v>1102006</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="29">
         <v>3.4</v>
       </c>
-      <c r="E29" s="12">
-        <f t="shared" si="1"/>
-        <v>3.7</v>
-      </c>
-      <c r="F29" s="23">
+      <c r="E29" s="27">
+        <f t="shared" si="1"/>
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="F29" s="29">
         <v>0.9</v>
       </c>
-      <c r="G29" s="11" t="str">
+      <c r="G29" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102006/Pefabs/model_xy_1102006_p.prefab</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="J29" s="28" t="str">
+      <c r="I29" s="8"/>
+      <c r="J29" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102006/Animations/1102006_win.playable</v>
       </c>
-    </row>
-    <row r="30" customFormat="1" spans="2:10">
-      <c r="B30" s="24">
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="33">
         <v>1102007</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="29">
         <v>2.17</v>
       </c>
-      <c r="E30" s="12">
-        <f t="shared" si="1"/>
-        <v>2.47</v>
-      </c>
-      <c r="F30" s="23">
+      <c r="E30" s="27">
+        <f t="shared" si="1"/>
+        <v>2.4699999999999998</v>
+      </c>
+      <c r="F30" s="29">
         <v>0.45</v>
       </c>
-      <c r="G30" s="11" t="str">
+      <c r="G30" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102007/Pefabs/model_tstn_1102007_p.prefab</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="J30" s="28" t="str">
+      <c r="I30" s="8"/>
+      <c r="J30" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102007/Animations/1102007_win.playable</v>
       </c>
-    </row>
-    <row r="31" customFormat="1" spans="2:10">
-      <c r="B31" s="24">
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="33">
         <v>1102008</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="29">
         <v>3.3</v>
       </c>
-      <c r="E31" s="12">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="F31" s="23">
-        <v>1.14</v>
-      </c>
-      <c r="G31" s="11" t="str">
+      <c r="E31" s="27">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="F31" s="29">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G31" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102008/Pefabs/model_xhy_1102008_p.prefab</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="J31" s="28" t="str">
+      <c r="I31" s="8"/>
+      <c r="J31" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102008/Animations/1102008_win.playable</v>
       </c>
-    </row>
-    <row r="32" customFormat="1" spans="2:10">
-      <c r="B32" s="24">
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="33">
         <v>1102009</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="29">
         <v>3.06</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="27">
         <f t="shared" si="1"/>
         <v>3.36</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="29">
         <v>0.77</v>
       </c>
-      <c r="G32" s="11" t="str">
+      <c r="G32" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102009/Pefabs/model_xh_1102009_p.prefab</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="28" t="str">
+      <c r="I32" s="8"/>
+      <c r="J32" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102009/Animations/1102009_win.playable</v>
       </c>
-    </row>
-    <row r="33" customFormat="1" spans="2:10">
-      <c r="B33" s="24">
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="33">
         <v>1102010</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="29">
         <v>3.78</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="27">
         <f t="shared" si="1"/>
         <v>4.08</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="29">
         <v>0.76</v>
       </c>
-      <c r="G33" s="11" t="str">
+      <c r="G33" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102010/Pefabs/model_zh_1102010_p.prefab</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="J33" s="28" t="str">
+      <c r="I33" s="8"/>
+      <c r="J33" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102010/Animations/1102010_win.playable</v>
       </c>
-    </row>
-    <row r="34" customFormat="1" spans="2:10">
-      <c r="B34" s="24">
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="33">
         <v>1102011</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="29">
         <v>2.96</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="27">
         <f t="shared" si="1"/>
         <v>3.26</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="29">
         <v>0.78</v>
       </c>
-      <c r="G34" s="11" t="str">
+      <c r="G34" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102011/Pefabs/model_zf_1102011_p.prefab</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="J34" s="28" t="str">
+      <c r="I34" s="8"/>
+      <c r="J34" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102011/Animations/1102011_win.playable</v>
       </c>
-    </row>
-    <row r="35" customFormat="1" spans="2:10">
-      <c r="B35" s="24">
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="20"/>
+      <c r="B35" s="33">
         <v>1102012</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="29">
         <v>2.97</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="27">
         <f t="shared" si="1"/>
         <v>3.27</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="29">
         <v>1.05</v>
       </c>
-      <c r="G35" s="11" t="str">
+      <c r="G35" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102012/Pefabs/model_xhd_1102012_p.prefab</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="J35" s="28" t="str">
+      <c r="I35" s="8"/>
+      <c r="J35" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102012/Animations/1102012_win.playable</v>
       </c>
-    </row>
-    <row r="36" customFormat="1" spans="2:10">
-      <c r="B36" s="24">
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="33">
         <v>1102013</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="29">
         <v>2.5</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="27">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="29">
         <v>1.24</v>
       </c>
-      <c r="G36" s="11" t="str">
+      <c r="G36" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102013/Pefabs/model_sbls_1102013_p.prefab</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="J36" s="28" t="str">
+      <c r="I36" s="8"/>
+      <c r="J36" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102013/Animations/1102013_win.playable</v>
       </c>
-    </row>
-    <row r="37" customFormat="1" spans="2:10">
-      <c r="B37" s="24">
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="20"/>
+      <c r="B37" s="33">
         <v>1102014</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="12">
+      <c r="D37" s="28"/>
+      <c r="E37" s="27">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="11" t="str">
+      <c r="F37" s="28"/>
+      <c r="G37" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102014/Pefabs/model_slm_1102014_p.prefab</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="J37" s="28" t="str">
+      <c r="I37" s="8"/>
+      <c r="J37" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102014/Animations/1102014_win.playable</v>
       </c>
-    </row>
-    <row r="38" customFormat="1" spans="2:10">
-      <c r="B38" s="24">
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="33">
         <v>1102016</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="29">
         <v>3.22</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="27">
         <f t="shared" si="1"/>
         <v>3.52</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="29">
         <v>0.7</v>
       </c>
-      <c r="G38" s="11" t="str">
+      <c r="G38" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102016/Pefabs/model_xfl_1102016_p.prefab</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="J38" s="28" t="str">
+      <c r="I38" s="8"/>
+      <c r="J38" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102016/Animations/1102016_win.playable</v>
       </c>
-    </row>
-    <row r="39" customFormat="1" spans="2:10">
-      <c r="B39" s="24">
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="20"/>
+      <c r="B39" s="33">
         <v>1102017</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="29">
         <v>2.9</v>
       </c>
-      <c r="E39" s="12">
-        <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="F39" s="23">
+      <c r="E39" s="27">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="F39" s="29">
         <v>0.68</v>
       </c>
-      <c r="G39" s="11" t="str">
+      <c r="G39" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102017/Pefabs/model_fl_1102017_p.prefab</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="J39" s="28" t="str">
+      <c r="I39" s="8"/>
+      <c r="J39" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102017/Animations/1102017_win.playable</v>
       </c>
-    </row>
-    <row r="40" customFormat="1" spans="2:10">
-      <c r="B40" s="24">
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="20"/>
+      <c r="B40" s="33">
         <v>1102018</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="29">
         <v>3.14</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="27">
         <f t="shared" si="1"/>
         <v>3.44</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="29">
         <v>1.19</v>
       </c>
-      <c r="G40" s="11" t="str">
+      <c r="G40" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102018/Pefabs/model_sr_1102018_p.prefab</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="J40" s="28" t="str">
+      <c r="I40" s="8"/>
+      <c r="J40" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102018/Animations/1102018_win.playable</v>
       </c>
-    </row>
-    <row r="41" customFormat="1" spans="2:10">
-      <c r="B41" s="24">
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="20"/>
+      <c r="B41" s="33">
         <v>1102019</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="29">
         <v>2.84</v>
       </c>
-      <c r="E41" s="12">
-        <f t="shared" si="1"/>
-        <v>3.14</v>
-      </c>
-      <c r="F41" s="23">
+      <c r="E41" s="27">
+        <f t="shared" si="1"/>
+        <v>3.1399999999999997</v>
+      </c>
+      <c r="F41" s="29">
         <v>0.4</v>
       </c>
-      <c r="G41" s="11" t="str">
+      <c r="G41" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102019/Pefabs/model_shx_1102019_p.prefab</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="28" t="str">
+      <c r="I41" s="8"/>
+      <c r="J41" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102019/Animations/1102019_win.playable</v>
       </c>
-    </row>
-    <row r="42" customFormat="1" spans="2:10">
-      <c r="B42" s="24">
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="20"/>
+      <c r="B42" s="33">
         <v>1102020</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="28">
         <v>2.96</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="27">
         <f t="shared" si="1"/>
         <v>3.26</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="28">
         <v>0.94</v>
       </c>
-      <c r="G42" s="11" t="str">
+      <c r="G42" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102020/Pefabs/model_gs_1102020_p.prefab</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="J42" s="28" t="str">
+      <c r="I42" s="8"/>
+      <c r="J42" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102020/Animations/1102020_win.playable</v>
       </c>
-    </row>
-    <row r="43" customFormat="1" spans="2:10">
-      <c r="B43" s="24">
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="20"/>
+      <c r="B43" s="33">
         <v>1102021</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="29">
         <v>2.75</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="27">
         <f t="shared" si="1"/>
         <v>3.05</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="29">
         <v>0.61</v>
       </c>
-      <c r="G43" s="11" t="str">
+      <c r="G43" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1102021/Pefabs/model_lftl_1102021_p.prefab</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="J43" s="28" t="str">
+      <c r="I43" s="8"/>
+      <c r="J43" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Art/Roles/rol_1102021/Animations/1102021_win.playable</v>
       </c>
-    </row>
-    <row r="44" customFormat="1" spans="2:8">
-      <c r="B44" s="24">
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="20"/>
+      <c r="B44" s="33">
         <v>1201001</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="29">
         <v>2.35</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="27">
         <f t="shared" si="1"/>
         <v>2.65</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="29">
         <v>0.69</v>
       </c>
-      <c r="G44" s="11" t="str">
+      <c r="G44" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1201001/Pefabs/model_jsgb1_1201001_p.prefab</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="30" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" customFormat="1" spans="2:8">
-      <c r="B45" s="24">
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="20"/>
+      <c r="B45" s="33">
         <v>1201002</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="29">
         <v>1.98</v>
       </c>
-      <c r="E45" s="12">
-        <f t="shared" si="1"/>
-        <v>2.28</v>
-      </c>
-      <c r="F45" s="23">
+      <c r="E45" s="27">
+        <f t="shared" si="1"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F45" s="29">
         <v>0.4</v>
       </c>
-      <c r="G45" s="11" t="str">
+      <c r="G45" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1201002/Pefabs/model_jsgb2_1201002_p.prefab</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="30" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" customFormat="1" spans="2:8">
-      <c r="B46" s="24">
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="20"/>
+      <c r="B46" s="33">
         <v>1201003</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="29">
         <v>1.34</v>
       </c>
-      <c r="E46" s="12">
-        <f t="shared" si="1"/>
-        <v>1.64</v>
-      </c>
-      <c r="F46" s="23">
+      <c r="E46" s="27">
+        <f t="shared" si="1"/>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="F46" s="29">
         <v>0.32</v>
       </c>
-      <c r="G46" s="11" t="str">
+      <c r="G46" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1201003/Pefabs/model_jsgb3_1201003_p.prefab</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="30" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" customFormat="1" spans="2:8">
-      <c r="B47" s="24">
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="20"/>
+      <c r="B47" s="33">
         <v>1201004</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="29">
         <v>2.8</v>
       </c>
-      <c r="E47" s="12">
-        <f t="shared" si="1"/>
-        <v>3.1</v>
-      </c>
-      <c r="F47" s="23">
+      <c r="E47" s="27">
+        <f t="shared" si="1"/>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="F47" s="29">
         <v>0.78</v>
       </c>
-      <c r="G47" s="11" t="str">
+      <c r="G47" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1201004/Pefabs/model_gjj1_1201004_p.prefab</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="30" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="48" customFormat="1" spans="2:8">
-      <c r="B48" s="24">
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="20"/>
+      <c r="B48" s="33">
         <v>1201005</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="29">
         <v>2.8</v>
       </c>
-      <c r="E48" s="12">
-        <f t="shared" si="1"/>
-        <v>3.1</v>
-      </c>
-      <c r="F48" s="23">
+      <c r="E48" s="27">
+        <f t="shared" si="1"/>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="F48" s="29">
         <v>0.78</v>
       </c>
-      <c r="G48" s="11" t="str">
+      <c r="G48" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1201005/Pefabs/model_gjj2_1201005_p.prefab</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="30" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="49" customFormat="1" spans="2:8">
-      <c r="B49" s="24">
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="20"/>
+      <c r="B49" s="33">
         <v>1201006</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="29">
         <v>1.96</v>
       </c>
-      <c r="E49" s="12">
-        <f t="shared" si="1"/>
-        <v>2.26</v>
-      </c>
-      <c r="F49" s="23">
+      <c r="E49" s="27">
+        <f t="shared" si="1"/>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F49" s="29">
         <v>0.46</v>
       </c>
-      <c r="G49" s="11" t="str">
+      <c r="G49" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1201006/Pefabs/model_klxb1_1201006_p.prefab</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="30" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="50" customFormat="1" spans="2:8">
-      <c r="B50" s="24">
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="20"/>
+      <c r="B50" s="33">
         <v>1201007</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="29">
         <v>1.96</v>
       </c>
-      <c r="E50" s="12">
-        <f t="shared" si="1"/>
-        <v>2.26</v>
-      </c>
-      <c r="F50" s="23">
+      <c r="E50" s="27">
+        <f t="shared" si="1"/>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F50" s="29">
         <v>0.46</v>
       </c>
-      <c r="G50" s="11" t="str">
+      <c r="G50" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1201007/Pefabs/model_klxb2_1201007_p.prefab</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="30" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="51" customFormat="1" spans="2:8">
-      <c r="B51" s="24">
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="20"/>
+      <c r="B51" s="33">
         <v>1201008</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="12">
+      <c r="D51" s="28"/>
+      <c r="E51" s="27">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="11" t="str">
+      <c r="F51" s="28"/>
+      <c r="G51" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1201008/Pefabs/model_fsjj_1201008_p.prefab</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="30" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" customFormat="1" spans="2:8">
-      <c r="B52" s="24">
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="20"/>
+      <c r="B52" s="33">
         <v>1201009</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="29">
         <v>2.67</v>
       </c>
-      <c r="E52" s="12">
-        <f t="shared" si="1"/>
-        <v>2.97</v>
-      </c>
-      <c r="F52" s="23">
+      <c r="E52" s="27">
+        <f t="shared" si="1"/>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="F52" s="29">
         <v>1.08</v>
       </c>
-      <c r="G52" s="11" t="str">
+      <c r="G52" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1201009/Pefabs/model_spjj_1201009_p.prefab</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="30" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="53" customFormat="1" spans="2:8">
-      <c r="B53" s="24">
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="20"/>
+      <c r="B53" s="33">
         <v>1201010</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="29">
         <v>1.19</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="27">
         <f t="shared" si="1"/>
         <v>1.49</v>
       </c>
-      <c r="F53" s="23">
-        <v>1.16</v>
-      </c>
-      <c r="G53" s="11" t="str">
+      <c r="F53" s="29">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G53" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1201010/Pefabs/model_xzz_1201010_p.prefab</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="30" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="54" customFormat="1" spans="2:8">
-      <c r="B54" s="24">
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="20"/>
+      <c r="B54" s="33">
         <v>1201011</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="29">
         <v>1.8</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="27">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="29">
         <v>0.4</v>
       </c>
-      <c r="G54" s="11" t="str">
+      <c r="G54" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1201011/Pefabs/model_mdjbt_1201011_p.prefab</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="30" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="55" customFormat="1" spans="2:8">
-      <c r="B55" s="24">
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+    </row>
+    <row r="55" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="20"/>
+      <c r="B55" s="33">
         <v>1202001</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="23">
-        <v>2.18</v>
-      </c>
-      <c r="E55" s="12">
+      <c r="D55" s="29">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E55" s="27">
         <f t="shared" si="1"/>
         <v>2.48</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="29">
         <v>1.75</v>
       </c>
-      <c r="G55" s="11" t="str">
+      <c r="G55" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Art/Roles/rol_1202001/Pefabs/model_szz_1202001_p.prefab</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="30" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="56" customFormat="1" ht="13.5"/>
-    <row r="57" customFormat="1" ht="13.5"/>
-    <row r="58" customFormat="1" ht="13.5"/>
-    <row r="59" customFormat="1" ht="13.5"/>
-    <row r="60" customFormat="1" ht="13.5"/>
-    <row r="61" customFormat="1" ht="13.5"/>
-    <row r="62" customFormat="1" ht="13.5"/>
-    <row r="63" customFormat="1" ht="13.5"/>
-    <row r="64" customFormat="1" ht="13.5"/>
-    <row r="65" customFormat="1" ht="13.5"/>
-    <row r="66" customFormat="1" ht="13.5"/>
-    <row r="67" customFormat="1" ht="13.5"/>
-    <row r="68" customFormat="1" ht="13.5"/>
-    <row r="69" customFormat="1" ht="13.5"/>
-    <row r="70" customFormat="1" ht="13.5"/>
-    <row r="71" customFormat="1" ht="13.5"/>
-    <row r="72" customFormat="1" ht="13.5"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56" spans="1:11" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="1:11" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:11" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="1:11" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:11" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:11" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:11" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:11" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:11" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="65" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="66" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="67" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="69" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="70" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="71" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="72" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <conditionalFormatting sqref="B$1:B$1048576">
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
@@ -3855,29 +3667,29 @@
     <col min="4" max="4" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3888,8 +3700,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3899,14 +3711,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3915,172 +3727,171 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="7">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="12">
         <v>1304001</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="7">
+      <c r="C8" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="12">
         <v>1304002</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="7">
+      <c r="C9" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="12">
         <v>1304003</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="7">
+      <c r="C10" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="12">
         <v>1304004</v>
       </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="7">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="12">
         <v>1304005</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="12">
+        <v>1304006</v>
+      </c>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="12">
+        <v>1304007</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="12">
+        <v>1304008</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1304009</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1304010</v>
+      </c>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1304011</v>
+      </c>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1304012</v>
+      </c>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="12">
+        <v>1304013</v>
+      </c>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="12">
+        <v>1304014</v>
+      </c>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="12">
+        <v>1304015</v>
+      </c>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="12">
+        <v>1304016</v>
+      </c>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="12">
+        <v>1304017</v>
+      </c>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="12">
+        <v>1304018</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="12">
+        <v>1304019</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="7">
-        <v>1304006</v>
-      </c>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="7">
-        <v>1304007</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="7">
-        <v>1304008</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="7">
-        <v>1304009</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="7">
-        <v>1304010</v>
-      </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="7">
-        <v>1304011</v>
-      </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="7">
-        <v>1304012</v>
-      </c>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="7">
-        <v>1304013</v>
-      </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="7">
-        <v>1304014</v>
-      </c>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="7">
-        <v>1304015</v>
-      </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="7">
-        <v>1304016</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="7">
-        <v>1304017</v>
-      </c>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="7">
-        <v>1304018</v>
-      </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="7">
-        <v>1304019</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="3:3">
-      <c r="C27" s="11"/>
+    <row r="27" spans="2:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C27" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="48.5" customWidth="1"/>
-    <col min="4" max="4" width="41.75" customWidth="1"/>
-    <col min="5" max="5" width="52" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="4" max="4" width="45.375" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4091,16 +3902,16 @@
         <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4113,14 +3924,14 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4133,44 +3944,44 @@
       <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>3</v>
       </c>
       <c r="F3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>156</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4179,21 +3990,393 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8">
+        <v>15</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8">
+        <v>16</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8">
+        <v>17</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8">
+        <v>18</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8">
+        <v>21</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8">
+        <v>22</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8">
+        <v>23</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>